--- a/Asunaro Summer 2015/daily registration and van registration sheet.xlsx
+++ b/Asunaro Summer 2015/daily registration and van registration sheet.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="17235" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18740" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,9 +29,6 @@
     <t xml:space="preserve"> school</t>
   </si>
   <si>
-    <t>and　Van registration sheet</t>
-  </si>
-  <si>
     <t>Name＿＿＿＿＿＿＿＿＿＿＿＿＿＿</t>
   </si>
   <si>
@@ -136,13 +138,16 @@
   </si>
   <si>
     <t>2015 IAAS  Summer school daily registration</t>
+  </si>
+  <si>
+    <t>and Van registration sheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +169,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,25 +194,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -211,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -223,6 +234,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,25 +528,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25">
+    <row r="1" spans="1:8" ht="23">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -544,9 +556,9 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25">
+    <row r="2" spans="1:8" ht="23">
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -554,9 +566,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="23.25">
+    <row r="4" spans="1:8" ht="23">
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -564,55 +576,55 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="21">
+    <row r="6" spans="1:8" ht="20">
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21">
+    </row>
+    <row r="7" spans="1:8" ht="20">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="21">
+    <row r="8" spans="1:8" ht="20">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="21">
+    <row r="9" spans="1:8" ht="20">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21">
+    </row>
+    <row r="10" spans="1:8" ht="20">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -621,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21">
+    <row r="11" spans="1:8" ht="20">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -630,176 +642,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21">
+    <row r="12" spans="1:8" ht="20">
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21">
+    </row>
+    <row r="13" spans="1:8" ht="20">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="21">
+    <row r="14" spans="1:8" ht="20">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="21">
+    <row r="15" spans="1:8" ht="20">
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="21">
+    </row>
+    <row r="16" spans="1:8" ht="20">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:7" ht="21">
+    <row r="17" spans="2:7" ht="20">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:7" ht="21">
+    <row r="18" spans="2:7" ht="20">
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="21">
+    </row>
+    <row r="19" spans="2:7" ht="20">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="21">
+    <row r="20" spans="2:7" ht="20">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:7" ht="21">
+    <row r="21" spans="2:7" ht="20">
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="21">
+    </row>
+    <row r="22" spans="2:7" ht="20">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:7" ht="21">
+    <row r="23" spans="2:7" ht="20">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="21">
+    <row r="24" spans="2:7" ht="20">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="21">
+    </row>
+    <row r="25" spans="2:7" ht="20">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:7" ht="21">
+    <row r="26" spans="2:7" ht="20">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:7" ht="21">
+    <row r="27" spans="2:7" ht="20">
       <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="39" customHeight="1">
@@ -827,23 +839,31 @@
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17">
+      <c r="B34" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="2:6" ht="17">
+      <c r="B35" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -852,30 +872,45 @@
     <mergeCell ref="B4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>